--- a/airhockey/airhockey/Auswertung_Zusammenfassung.xlsx
+++ b/airhockey/airhockey/Auswertung_Zusammenfassung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Y-Richtung" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Diagonal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
   <si>
     <t>Geschwindigkeit in Y-Richtung bei x =0</t>
   </si>
@@ -101,6 +102,1770 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>x = 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.4491647367608456E-2"/>
+                  <c:y val="8.7745217414833456E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Y-Richtung'!$E$5:$E$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0.14476513862599999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14882516861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16091299057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.169950962067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.181915998459</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.198197126389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20592403411900001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20089411735500001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21415710449200001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21789693832400001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2259349823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23405098915100001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.233914852142</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24189209938</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25404095649699998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.253921031952</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25791978836099999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26592493057299998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26701688766499998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27390122413599999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28190398216200002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28727889061</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.29813098907500002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.30217504501300002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.31006312370299999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.31390595436099999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.31376290321400002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.326039075851</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.33490300178499999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.33493304252599998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.34174299240099998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.35089588165300001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.35777592659000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.36686396598799997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.37503910064700002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.37889599800099999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38701915740999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.39506387710599999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.40334701538099998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.407334089279</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41088294982899998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41886186599699998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42788791656500003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43089413642899999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.43890213966399999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44287514686599999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45484995841999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.464155912399</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46273303031899998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.47588682174699998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.48026013374299997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.476388931274</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.48783612251300001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.499881982803</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.49985003471400002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.51189088821399997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.51172399520900003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.51985096931499997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.52385616302500004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.53588390350299997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.53185081481899998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.53986501693699995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.54431986808800004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.55631399154700001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.55686211586000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.56082701683000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.56888008117699995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.572857141495</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.57686305046099995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Y-Richtung'!$F$5:$F$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="130305984"/>
+        <c:axId val="130306560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130305984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130306560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130306560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130305984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>x=260</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.6205311807915779E-2"/>
+                  <c:y val="-4.8493276088833271E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Y-Richtung'!$E$79:$E$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0.15308809280399999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.160739898682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.166026830673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18890905380199999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20089793205299999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.213907957077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.209926128387</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.216917037964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22990298271199999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.233907938004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.241926908493</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25390005111699998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25791501998900002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26580595970199999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27390909194899998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27389383315999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.281687021255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28592705726599998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30289912223799997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30215001106299999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.30328488349900001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.30216884613</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.31102705001800002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.31502890586900001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.32290792465200002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.330895900726</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32978701591499998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33097290992700001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.33889603614800001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.34179496765099998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.34289288520799999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34688782691999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.35486292839099998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.35903382301300002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.36292600631700001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36702108383199999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37008285522500001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37133693695100001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.37887310981799999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38287305831899998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.38287115097000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.39599800109900002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.390876054764</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.39487409591700001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.40286612510699998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.40688991546600001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.41088700294500002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.41091799736000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.41603398323099999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.42688703537</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.42695784568799999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.43125295639</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.435206890106</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.44286704063400001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.44690513610799998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.44798994064300002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.44798994064300002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.45186495780899999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.45876288413999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.47185182571399997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.47185897827099998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.47590112686199998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.47873187065099998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.47926783561699998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.48729705810500001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.491890907288</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.49989509582500002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.49585795402499999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.503891944885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Y-Richtung'!$F$79:$F$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="130309440"/>
+        <c:axId val="617988096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130309440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="617988096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="617988096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130309440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>y=0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10060233296526008"/>
+                  <c:y val="-4.452759331976453E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'X-Richtung'!$E$5:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.148832082748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.156923055649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16092705726600001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17691421508800001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.189912796021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19792103767399999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20081615448000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21004915237399999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22219896316500001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.226091146469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.234090089798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24509882926900001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24991703033400001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25790405273400002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26589679717999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.274901866913</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28591299057000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29379510879499998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.303040981293</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31502699851999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.326896905899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.33488917350800002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34579205513</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.362884998322</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.37889003753700001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.38688588142399999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'X-Richtung'!$F$5:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="617989824"/>
+        <c:axId val="617990400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="617989824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="617990400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="617990400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="617989824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>y=345</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1815919383134109E-2"/>
+                  <c:y val="5.4546786302874933E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'X-Richtung'!$E$36:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.152456998825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16492700576800001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16883897781400001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18993520736700001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19395804405200001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20594787597700001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21281218528699999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.221932888031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22190809249900001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22992897033699999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24077415466300001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24607706069900001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25814700126599999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26103115081799999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27012991905200001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28193688392600003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28577494621299998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.293931007385</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30190491676300002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30982398986800003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32175302505499997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32989096641499999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34694981575</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.346915960312</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.35888910293600002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.37089705467200001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'X-Richtung'!$F$36:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="617992128"/>
+        <c:axId val="617992704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="617992128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="617992704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="617992704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="617992128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,18 +2157,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -419,8 +2184,11 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -436,8 +2204,12 @@
       <c r="E4">
         <v>5.6704998016399999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>SQRT((A4-C4)^2+(B4-D4)^2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -453,8 +2225,12 @@
       <c r="E5">
         <v>0.14476513862599999</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" ref="F5:F68" si="0">SQRT((A5-C5)^2+(B5-D5)^2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -470,8 +2246,12 @@
       <c r="E6">
         <v>0.14882516861</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -487,8 +2267,12 @@
       <c r="E7">
         <v>0.16091299057</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -504,8 +2288,12 @@
       <c r="E8">
         <v>0.169950962067</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -521,8 +2309,12 @@
       <c r="E9">
         <v>0.181915998459</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -538,8 +2330,12 @@
       <c r="E10">
         <v>0.198197126389</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -555,8 +2351,12 @@
       <c r="E11">
         <v>0.20592403411900001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -572,8 +2372,12 @@
       <c r="E12">
         <v>0.20089411735500001</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -589,8 +2393,12 @@
       <c r="E13">
         <v>0.21415710449200001</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -606,8 +2414,12 @@
       <c r="E14">
         <v>0.21789693832400001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -623,8 +2435,12 @@
       <c r="E15">
         <v>0.2259349823</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -640,8 +2456,12 @@
       <c r="E16">
         <v>0.23405098915100001</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -657,8 +2477,12 @@
       <c r="E17">
         <v>0.233914852142</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -674,8 +2498,12 @@
       <c r="E18">
         <v>0.24189209938</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -691,8 +2519,12 @@
       <c r="E19">
         <v>0.25404095649699998</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -708,8 +2540,12 @@
       <c r="E20">
         <v>0.253921031952</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -725,8 +2561,12 @@
       <c r="E21">
         <v>0.25791978836099999</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -742,8 +2582,12 @@
       <c r="E22">
         <v>0.26592493057299998</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -759,8 +2603,12 @@
       <c r="E23">
         <v>0.26701688766499998</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -776,8 +2624,12 @@
       <c r="E24">
         <v>0.27390122413599999</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -793,8 +2645,12 @@
       <c r="E25">
         <v>0.28190398216200002</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -810,8 +2666,12 @@
       <c r="E26">
         <v>0.28727889061</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -827,8 +2687,12 @@
       <c r="E27">
         <v>0.29813098907500002</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -844,8 +2708,12 @@
       <c r="E28">
         <v>0.30217504501300002</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -861,8 +2729,12 @@
       <c r="E29">
         <v>0.31006312370299999</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -878,8 +2750,12 @@
       <c r="E30">
         <v>0.31390595436099999</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -895,8 +2771,12 @@
       <c r="E31">
         <v>0.31376290321400002</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -912,8 +2792,12 @@
       <c r="E32">
         <v>0.326039075851</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -929,8 +2813,12 @@
       <c r="E33">
         <v>0.33490300178499999</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -946,8 +2834,12 @@
       <c r="E34">
         <v>0.33493304252599998</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -963,8 +2855,12 @@
       <c r="E35">
         <v>0.34174299240099998</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -980,8 +2876,12 @@
       <c r="E36">
         <v>0.35089588165300001</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -997,8 +2897,12 @@
       <c r="E37">
         <v>0.35777592659000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1014,8 +2918,12 @@
       <c r="E38">
         <v>0.36686396598799997</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -1031,8 +2939,12 @@
       <c r="E39">
         <v>0.37503910064700002</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1048,8 +2960,12 @@
       <c r="E40">
         <v>0.37889599800099999</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -1065,8 +2981,12 @@
       <c r="E41">
         <v>0.38701915740999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -1082,8 +3002,12 @@
       <c r="E42">
         <v>0.39506387710599999</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -1099,8 +3023,12 @@
       <c r="E43">
         <v>0.40334701538099998</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -1116,8 +3044,12 @@
       <c r="E44">
         <v>0.407334089279</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -1133,8 +3065,12 @@
       <c r="E45">
         <v>0.41088294982899998</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -1150,8 +3086,12 @@
       <c r="E46">
         <v>0.41886186599699998</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -1167,8 +3107,12 @@
       <c r="E47">
         <v>0.42788791656500003</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -1184,8 +3128,12 @@
       <c r="E48">
         <v>0.43089413642899999</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -1201,8 +3149,12 @@
       <c r="E49">
         <v>0.43890213966399999</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -1218,8 +3170,12 @@
       <c r="E50">
         <v>0.44287514686599999</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -1235,8 +3191,12 @@
       <c r="E51">
         <v>0.45484995841999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1252,8 +3212,12 @@
       <c r="E52">
         <v>0.464155912399</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1269,8 +3233,12 @@
       <c r="E53">
         <v>0.46273303031899998</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1286,8 +3254,12 @@
       <c r="E54">
         <v>0.47588682174699998</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1303,8 +3275,12 @@
       <c r="E55">
         <v>0.48026013374299997</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
@@ -1320,8 +3296,12 @@
       <c r="E56">
         <v>0.476388931274</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -1337,8 +3317,12 @@
       <c r="E57">
         <v>0.48783612251300001</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -1354,8 +3338,12 @@
       <c r="E58">
         <v>0.499881982803</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -1371,8 +3359,12 @@
       <c r="E59">
         <v>0.49985003471400002</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -1388,8 +3380,12 @@
       <c r="E60">
         <v>0.51189088821399997</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -1405,8 +3401,12 @@
       <c r="E61">
         <v>0.51172399520900003</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -1422,8 +3422,12 @@
       <c r="E62">
         <v>0.51985096931499997</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -1439,8 +3443,12 @@
       <c r="E63">
         <v>0.52385616302500004</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0</v>
       </c>
@@ -1456,6 +3464,10 @@
       <c r="E64">
         <v>0.53588390350299997</v>
       </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -1473,6 +3485,10 @@
       <c r="E65">
         <v>0.53185081481899998</v>
       </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>610</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -1490,6 +3506,10 @@
       <c r="E66">
         <v>0.53986501693699995</v>
       </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -1507,6 +3527,10 @@
       <c r="E67">
         <v>0.54431986808800004</v>
       </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -1524,6 +3548,10 @@
       <c r="E68">
         <v>0.55631399154700001</v>
       </c>
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -1541,6 +3569,10 @@
       <c r="E69">
         <v>0.55686211586000001</v>
       </c>
+      <c r="F69">
+        <f>SQRT((A69-C69)^2+(B69-D69)^2)</f>
+        <v>650</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -1558,6 +3590,10 @@
       <c r="E70">
         <v>0.56082701683000002</v>
       </c>
+      <c r="F70">
+        <f>SQRT((A70-C70)^2+(B70-D70)^2)</f>
+        <v>660</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -1575,6 +3611,10 @@
       <c r="E71">
         <v>0.56888008117699995</v>
       </c>
+      <c r="F71">
+        <f>SQRT((A71-C71)^2+(B71-D71)^2)</f>
+        <v>670</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -1592,6 +3632,10 @@
       <c r="E72">
         <v>0.572857141495</v>
       </c>
+      <c r="F72">
+        <f>SQRT((A72-C72)^2+(B72-D72)^2)</f>
+        <v>680</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -1608,6 +3652,10 @@
       </c>
       <c r="E73">
         <v>0.57686305046099995</v>
+      </c>
+      <c r="F73">
+        <f>SQRT((A73-C73)^2+(B73-D73)^2)</f>
+        <v>690</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,7 +3721,7 @@
         <v>0.15308809280399999</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79:F142" si="0">SQRT((A79-C79)^2+(B79-D79)^2)</f>
+        <f t="shared" ref="F79:F142" si="1">SQRT((A79-C79)^2+(B79-D79)^2)</f>
         <v>10</v>
       </c>
     </row>
@@ -1694,7 +3742,7 @@
         <v>0.160739898682</v>
       </c>
       <c r="F80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -1715,7 +3763,7 @@
         <v>0.166026830673</v>
       </c>
       <c r="F81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -1736,7 +3784,7 @@
         <v>0.18890905380199999</v>
       </c>
       <c r="F82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -1757,7 +3805,7 @@
         <v>0.20089793205299999</v>
       </c>
       <c r="F83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -1778,7 +3826,7 @@
         <v>0.213907957077</v>
       </c>
       <c r="F84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1799,7 +3847,7 @@
         <v>0.209926128387</v>
       </c>
       <c r="F85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
@@ -1820,7 +3868,7 @@
         <v>0.216917037964</v>
       </c>
       <c r="F86">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -1841,7 +3889,7 @@
         <v>0.22990298271199999</v>
       </c>
       <c r="F87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -1862,7 +3910,7 @@
         <v>0.233907938004</v>
       </c>
       <c r="F88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1883,7 +3931,7 @@
         <v>0.241926908493</v>
       </c>
       <c r="F89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -1904,7 +3952,7 @@
         <v>0.25390005111699998</v>
       </c>
       <c r="F90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -1925,7 +3973,7 @@
         <v>0.25791501998900002</v>
       </c>
       <c r="F91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
     </row>
@@ -1946,7 +3994,7 @@
         <v>0.26580595970199999</v>
       </c>
       <c r="F92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
@@ -1967,7 +4015,7 @@
         <v>0.27390909194899998</v>
       </c>
       <c r="F93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
@@ -1988,7 +4036,7 @@
         <v>0.27389383315999999</v>
       </c>
       <c r="F94">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
     </row>
@@ -2009,7 +4057,7 @@
         <v>0.281687021255</v>
       </c>
       <c r="F95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
     </row>
@@ -2030,7 +4078,7 @@
         <v>0.28592705726599998</v>
       </c>
       <c r="F96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
     </row>
@@ -2051,7 +4099,7 @@
         <v>0.30289912223799997</v>
       </c>
       <c r="F97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
     </row>
@@ -2072,7 +4120,7 @@
         <v>0.30215001106299999</v>
       </c>
       <c r="F98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
@@ -2093,7 +4141,7 @@
         <v>0.30328488349900001</v>
       </c>
       <c r="F99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
     </row>
@@ -2114,7 +4162,7 @@
         <v>0.30216884613</v>
       </c>
       <c r="F100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
     </row>
@@ -2135,7 +4183,7 @@
         <v>0.31102705001800002</v>
       </c>
       <c r="F101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
     </row>
@@ -2156,7 +4204,7 @@
         <v>0.31502890586900001</v>
       </c>
       <c r="F102">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
     </row>
@@ -2177,7 +4225,7 @@
         <v>0.32290792465200002</v>
       </c>
       <c r="F103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
@@ -2198,7 +4246,7 @@
         <v>0.330895900726</v>
       </c>
       <c r="F104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
     </row>
@@ -2219,7 +4267,7 @@
         <v>0.32978701591499998</v>
       </c>
       <c r="F105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
     </row>
@@ -2240,7 +4288,7 @@
         <v>0.33097290992700001</v>
       </c>
       <c r="F106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
     </row>
@@ -2261,7 +4309,7 @@
         <v>0.33889603614800001</v>
       </c>
       <c r="F107">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
     </row>
@@ -2282,7 +4330,7 @@
         <v>0.34179496765099998</v>
       </c>
       <c r="F108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
@@ -2303,7 +4351,7 @@
         <v>0.34289288520799999</v>
       </c>
       <c r="F109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>310</v>
       </c>
     </row>
@@ -2324,7 +4372,7 @@
         <v>0.34688782691999998</v>
       </c>
       <c r="F110">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
     </row>
@@ -2345,7 +4393,7 @@
         <v>0.35486292839099998</v>
       </c>
       <c r="F111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>330</v>
       </c>
     </row>
@@ -2366,7 +4414,7 @@
         <v>0.35903382301300002</v>
       </c>
       <c r="F112">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>340</v>
       </c>
     </row>
@@ -2387,7 +4435,7 @@
         <v>0.36292600631700001</v>
       </c>
       <c r="F113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
     </row>
@@ -2408,7 +4456,7 @@
         <v>0.36702108383199999</v>
       </c>
       <c r="F114">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
     </row>
@@ -2429,7 +4477,7 @@
         <v>0.37008285522500001</v>
       </c>
       <c r="F115">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>370</v>
       </c>
     </row>
@@ -2450,7 +4498,7 @@
         <v>0.37133693695100001</v>
       </c>
       <c r="F116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>380</v>
       </c>
     </row>
@@ -2471,7 +4519,7 @@
         <v>0.37887310981799999</v>
       </c>
       <c r="F117">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
     </row>
@@ -2492,7 +4540,7 @@
         <v>0.38287305831899998</v>
       </c>
       <c r="F118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
@@ -2513,7 +4561,7 @@
         <v>0.38287115097000002</v>
       </c>
       <c r="F119">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
     </row>
@@ -2534,7 +4582,7 @@
         <v>0.39599800109900002</v>
       </c>
       <c r="F120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
     </row>
@@ -2555,7 +4603,7 @@
         <v>0.390876054764</v>
       </c>
       <c r="F121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>430</v>
       </c>
     </row>
@@ -2576,7 +4624,7 @@
         <v>0.39487409591700001</v>
       </c>
       <c r="F122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>440</v>
       </c>
     </row>
@@ -2597,7 +4645,7 @@
         <v>0.40286612510699998</v>
       </c>
       <c r="F123">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
     </row>
@@ -2618,7 +4666,7 @@
         <v>0.40688991546600001</v>
       </c>
       <c r="F124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>460</v>
       </c>
     </row>
@@ -2639,7 +4687,7 @@
         <v>0.41088700294500002</v>
       </c>
       <c r="F125">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>470</v>
       </c>
     </row>
@@ -2660,7 +4708,7 @@
         <v>0.41091799736000001</v>
       </c>
       <c r="F126">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
     </row>
@@ -2681,7 +4729,7 @@
         <v>0.41603398323099999</v>
       </c>
       <c r="F127">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
     </row>
@@ -2702,7 +4750,7 @@
         <v>0.42688703537</v>
       </c>
       <c r="F128">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -2723,7 +4771,7 @@
         <v>0.42695784568799999</v>
       </c>
       <c r="F129">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>510</v>
       </c>
     </row>
@@ -2744,7 +4792,7 @@
         <v>0.43125295639</v>
       </c>
       <c r="F130">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>520</v>
       </c>
     </row>
@@ -2765,7 +4813,7 @@
         <v>0.435206890106</v>
       </c>
       <c r="F131">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>530</v>
       </c>
     </row>
@@ -2786,7 +4834,7 @@
         <v>0.44286704063400001</v>
       </c>
       <c r="F132">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
     </row>
@@ -2807,7 +4855,7 @@
         <v>0.44690513610799998</v>
       </c>
       <c r="F133">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
     </row>
@@ -2828,7 +4876,7 @@
         <v>0.44798994064300002</v>
       </c>
       <c r="F134">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>560</v>
       </c>
     </row>
@@ -2849,7 +4897,7 @@
         <v>0.44798994064300002</v>
       </c>
       <c r="F135">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
     </row>
@@ -2870,7 +4918,7 @@
         <v>0.45186495780899999</v>
       </c>
       <c r="F136">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>580</v>
       </c>
     </row>
@@ -2891,7 +4939,7 @@
         <v>0.45876288413999999</v>
       </c>
       <c r="F137">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>590</v>
       </c>
     </row>
@@ -2912,7 +4960,7 @@
         <v>0.47185182571399997</v>
       </c>
       <c r="F138">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
@@ -2933,7 +4981,7 @@
         <v>0.47185897827099998</v>
       </c>
       <c r="F139">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>610</v>
       </c>
     </row>
@@ -2954,7 +5002,7 @@
         <v>0.47590112686199998</v>
       </c>
       <c r="F140">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>620</v>
       </c>
     </row>
@@ -2975,7 +5023,7 @@
         <v>0.47873187065099998</v>
       </c>
       <c r="F141">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
     </row>
@@ -2996,7 +5044,7 @@
         <v>0.47926783561699998</v>
       </c>
       <c r="F142">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>640</v>
       </c>
     </row>
@@ -3017,7 +5065,7 @@
         <v>0.48729705810500001</v>
       </c>
       <c r="F143">
-        <f t="shared" ref="F143:F147" si="1">SQRT((A143-C143)^2+(B143-D143)^2)</f>
+        <f>SQRT((A143-C143)^2+(B143-D143)^2)</f>
         <v>650</v>
       </c>
     </row>
@@ -3038,7 +5086,7 @@
         <v>0.491890907288</v>
       </c>
       <c r="F144">
-        <f t="shared" si="1"/>
+        <f>SQRT((A144-C144)^2+(B144-D144)^2)</f>
         <v>660</v>
       </c>
     </row>
@@ -3059,7 +5107,7 @@
         <v>0.49989509582500002</v>
       </c>
       <c r="F145">
-        <f t="shared" si="1"/>
+        <f>SQRT((A145-C145)^2+(B145-D145)^2)</f>
         <v>670</v>
       </c>
     </row>
@@ -3080,7 +5128,7 @@
         <v>0.49585795402499999</v>
       </c>
       <c r="F146">
-        <f t="shared" si="1"/>
+        <f>SQRT((A146-C146)^2+(B146-D146)^2)</f>
         <v>680</v>
       </c>
     </row>
@@ -3101,31 +5149,32 @@
         <v>0.503891944885</v>
       </c>
       <c r="F147">
-        <f t="shared" si="1"/>
+        <f>SQRT((A147-C147)^2+(B147-D147)^2)</f>
         <v>690</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3142,7 +5191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3158,8 +5207,12 @@
       <c r="E4">
         <v>5.3457021713300003E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>SQRT((A4-C4)^2+(B4-D4)^2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3175,8 +5228,12 @@
       <c r="E5">
         <v>0.148832082748</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" ref="F5:F30" si="0">SQRT((A5-C5)^2+(B5-D5)^2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3192,8 +5249,12 @@
       <c r="E6">
         <v>0.156923055649</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3209,8 +5270,12 @@
       <c r="E7">
         <v>0.16092705726600001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3226,8 +5291,12 @@
       <c r="E8">
         <v>0.17691421508800001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3243,8 +5312,12 @@
       <c r="E9">
         <v>0.189912796021</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3260,8 +5333,12 @@
       <c r="E10">
         <v>0.19792103767399999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3277,8 +5354,12 @@
       <c r="E11">
         <v>0.20081615448000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3294,8 +5375,12 @@
       <c r="E12">
         <v>0.21004915237399999</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3311,8 +5396,12 @@
       <c r="E13">
         <v>0.22219896316500001</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3328,8 +5417,12 @@
       <c r="E14">
         <v>0.226091146469</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -3345,8 +5438,12 @@
       <c r="E15">
         <v>0.234090089798</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -3362,8 +5459,12 @@
       <c r="E16">
         <v>0.24509882926900001</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3379,8 +5480,12 @@
       <c r="E17">
         <v>0.24991703033400001</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3396,8 +5501,12 @@
       <c r="E18">
         <v>0.25790405273400002</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3413,8 +5522,12 @@
       <c r="E19">
         <v>0.26589679717999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3430,8 +5543,12 @@
       <c r="E20">
         <v>0.274901866913</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3447,8 +5564,12 @@
       <c r="E21">
         <v>0.28591299057000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3464,8 +5585,12 @@
       <c r="E22">
         <v>0.29379510879499998</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3481,8 +5606,12 @@
       <c r="E23">
         <v>0.303040981293</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3498,8 +5627,12 @@
       <c r="E24">
         <v>0.31502699851999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3515,8 +5648,12 @@
       <c r="E25">
         <v>0.326896905899</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3532,8 +5669,12 @@
       <c r="E26">
         <v>0.33488917350800002</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3549,8 +5690,12 @@
       <c r="E27">
         <v>0.34579205513</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3566,8 +5711,12 @@
       <c r="E28">
         <v>0.362884998322</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -3583,8 +5732,12 @@
       <c r="E29">
         <v>0.37889003753700001</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -3600,13 +5753,17 @@
       <c r="E30">
         <v>0.38688588142399999</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -3626,7 +5783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3643,11 +5800,11 @@
         <v>7.2541952133199999E-2</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F61" si="0">SQRT((A35-C35)^2+(B35-D35)^2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F35:F61" si="1">SQRT((A35-C35)^2+(B35-D35)^2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -3664,11 +5821,11 @@
         <v>0.152456998825</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3685,11 +5842,11 @@
         <v>0.16492700576800001</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -3706,11 +5863,11 @@
         <v>0.16883897781400001</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -3727,11 +5884,11 @@
         <v>0.18993520736700001</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -3748,11 +5905,11 @@
         <v>0.19395804405200001</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3769,11 +5926,11 @@
         <v>0.20594787597700001</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3790,11 +5947,11 @@
         <v>0.21281218528699999</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3811,11 +5968,11 @@
         <v>0.221932888031</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3832,11 +5989,11 @@
         <v>0.22190809249900001</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3853,11 +6010,11 @@
         <v>0.22992897033699999</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3874,11 +6031,11 @@
         <v>0.24077415466300001</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3895,11 +6052,15 @@
         <v>0.24607706069900001</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f>(690+316.955)/1841.5</f>
+        <v>0.54681238121096931</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3916,11 +6077,15 @@
         <v>0.25814700126599999</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f>(260+163.23)/1145.2</f>
+        <v>0.36956863429968567</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -3937,11 +6102,15 @@
         <v>0.26103115081799999</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f>I48+I47</f>
+        <v>0.91638101551065498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -3958,11 +6127,11 @@
         <v>0.27012991905200001</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -3979,11 +6148,11 @@
         <v>0.28193688392600003</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -4000,11 +6169,11 @@
         <v>0.28577494621299998</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -4021,11 +6190,11 @@
         <v>0.293931007385</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -4042,11 +6211,11 @@
         <v>0.30190491676300002</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -4063,11 +6232,11 @@
         <v>0.30982398986800003</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
@@ -4084,11 +6253,11 @@
         <v>0.32175302505499997</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -4105,11 +6274,11 @@
         <v>0.32989096641499999</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -4126,11 +6295,11 @@
         <v>0.34694981575</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -4147,11 +6316,11 @@
         <v>0.346915960312</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -4168,11 +6337,11 @@
         <v>0.35888910293600002</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -4189,12 +6358,14 @@
         <v>0.37089705467200001</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
